--- a/src/controllers/BM1_2022-hospital.xlsx
+++ b/src/controllers/BM1_2022-hospital.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 11\Desktop\Pao\src\controllers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCB8798-A77F-4623-B27C-F6C22E04AA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8787CADA-9E49-4661-8579-DD30FE4CD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{6D8455C4-A442-4A32-AA3C-90677AC93C84}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Clasificación</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Valor Unitario Bs</t>
   </si>
   <si>
-    <t>Valor Total Bs</t>
-  </si>
-  <si>
     <t>Republica de Venezuela Gaceta Oficial Nº 2.624 Extraordinario de fecha 30-06-80  Pg. 153</t>
   </si>
   <si>
@@ -88,19 +85,28 @@
     <t>1.- Entidad Propietaria: HOSPITAL Dr JOSE RANGEL.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.- Unidad de Trabajo o Dependencia:  LAVANDERIA(CODIF.00006)                                                            3.- Servicio:  </t>
-  </si>
-  <si>
     <t xml:space="preserve">4.- Estado: ARAGUA </t>
   </si>
   <si>
-    <t>5.- Municipio: ZAMORA                                                                                       6.- Parroquia: VILLA DE CURA</t>
-  </si>
-  <si>
     <t>6.- Dirección o Lugar: VILLA DE CURA</t>
   </si>
   <si>
     <t>7.- Fecha: AGOSTO 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.- Parroquia: VILLA DE CURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.- Municipio: ZAMORA           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.- Servicio:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.- Unidad de Trabajo o Dependencia:                                               </t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -217,17 +223,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -248,15 +243,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -335,52 +321,52 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -422,7 +408,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -430,9 +415,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
@@ -440,74 +473,20 @@
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -537,8 +516,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -615,14 +594,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4210050</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5229225</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -648,8 +627,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7219950" y="180975"/>
-          <a:ext cx="1019175" cy="533400"/>
+          <a:off x="6191250" y="180975"/>
+          <a:ext cx="0" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -968,19 +947,20 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="79.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1008,17 +988,17 @@
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="A3" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1030,7 +1010,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="H4" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="17"/>
@@ -1045,7 +1025,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="24"/>
       <c r="I5" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="17"/>
     </row>
@@ -1062,14 +1042,14 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="A7" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="25"/>
       <c r="H7" s="24"/>
       <c r="I7" s="22"/>
@@ -1077,60 +1057,65 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="30"/>
       <c r="F8" s="31"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="H8" s="33" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="33"/>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="37"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1140,56 +1125,56 @@
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="55" t="s">
         <v>6</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="40"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1201,7 +1186,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="40"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -1213,7 +1198,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="40"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1225,7 +1210,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="40"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1237,7 +1222,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="40"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1249,7 +1234,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="40"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1261,7 +1246,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="40"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1273,7 +1258,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="40"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1285,7 +1270,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="40"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1297,7 +1282,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="40"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1309,7 +1294,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="40"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1321,7 +1306,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="40"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1333,7 +1318,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="40"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -1345,7 +1330,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="40"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -1357,7 +1342,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="40"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -1369,7 +1354,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="40"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1381,7 +1366,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="40"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1393,7 +1378,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="40"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -1405,7 +1390,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="40"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -1417,7 +1402,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="40"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -1429,7 +1414,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="40"/>
+      <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -1441,7 +1426,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="40"/>
+      <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1453,7 +1438,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="40"/>
+      <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -1465,7 +1450,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="40"/>
+      <c r="J37" s="55"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
@@ -1474,10 +1459,10 @@
       <c r="D38" s="8"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="38"/>
+      <c r="G38" s="37"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="40"/>
+      <c r="J38" s="55"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
@@ -1489,7 +1474,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="40"/>
+      <c r="J39" s="55"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
@@ -1501,7 +1486,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="40"/>
+      <c r="J40" s="55"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
@@ -1513,7 +1498,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="40"/>
+      <c r="J41" s="55"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
@@ -1525,7 +1510,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="40"/>
+      <c r="J42" s="55"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
@@ -1534,10 +1519,10 @@
       <c r="D43" s="15"/>
       <c r="E43" s="11"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="38"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="40"/>
+      <c r="J43" s="55"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
@@ -1549,7 +1534,7 @@
       <c r="G44" s="16"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="40"/>
+      <c r="J44" s="55"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
@@ -1561,7 +1546,7 @@
       <c r="G45" s="16"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="40"/>
+      <c r="J45" s="55"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
@@ -1573,7 +1558,7 @@
       <c r="G46" s="16"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="40"/>
+      <c r="J46" s="55"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
@@ -1585,7 +1570,7 @@
       <c r="G47" s="16"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="40"/>
+      <c r="J47" s="55"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
@@ -1597,7 +1582,7 @@
       <c r="G48" s="16"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="40"/>
+      <c r="J48" s="55"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
@@ -1606,10 +1591,10 @@
       <c r="D49" s="15"/>
       <c r="E49" s="11"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="39"/>
+      <c r="G49" s="38"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="40"/>
+      <c r="J49" s="55"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
@@ -1621,7 +1606,7 @@
       <c r="G50" s="16"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="40"/>
+      <c r="J50" s="55"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
@@ -1630,26 +1615,26 @@
       <c r="D51" s="15"/>
       <c r="E51" s="11"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="39"/>
+      <c r="G51" s="38"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="40"/>
+      <c r="J51" s="55"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43">
+      <c r="A52" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="58">
         <f>SUM(I15:I51)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="44"/>
+      <c r="I52" s="59"/>
       <c r="J52" s="17"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -1677,21 +1662,28 @@
       <c r="J54" s="17"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="51"/>
+      <c r="A55" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="42"/>
       <c r="J55" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J13:J51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="A10:G10"/>
@@ -1703,15 +1695,9 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>